--- a/biology/Neurosciences/David_Lykken/David_Lykken.xlsx
+++ b/biology/Neurosciences/David_Lykken/David_Lykken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Thoreson Lykken (18 juin 1928 – 15 septembre 2006) est généticien comportementaliste. Il est connu pour ses recherches sur ses études sur les jumeaux et la détection de mensonges (en).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Minneapolis (Minnesota), il s'engage dans la marine américaine durant la Seconde Guerre mondiale, à l'âge de 17 ans. Il fait ses études universitaires à  l'Université du Minnesota, où il obtient une licence en 1949, un master en 1952 et obtient son doctorat en psychologie clinique et neuropsychiatrie en 1955.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lykken est notamment connu pour ses travaux sur les jumeaux, qu'il a entamés en 1970. Il est l'un des principaux chercheurs de la Minnesota Twin Family Study (en), qui examine l'héritabilité de certains traits psychologiques à partir de signes trouvés chez des jumeaux identiques et fraternels. Il est l'un des 52 signataires d'un manifeste rédigé en réponse à l'ouvrage The Bell Curve intitulée Mainstream Science on Intelligence, à l'initiative de la psychologue et universitaire Linda Gottfredson, et publié dans le Wall Street Journal en 1994 ainsi que dans Intelligence en 1997.
 </t>
